--- a/test_csv_excel.xlsx
+++ b/test_csv_excel.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,55 +457,60 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Scenario</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Smolt type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Deploy period</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Period</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Employ bin</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Harvest bin</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Deploy bin</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deploy type bin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -522,27 +527,30 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>100000</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -550,28 +558,29 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>142310.3952591991</v>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>169037.5249449169</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -579,28 +588,29 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>188137.9880076258</v>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>250663.8575710377</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,28 +618,29 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>254224.3494971087</v>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>366099.3629353484</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -637,28 +648,29 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>314513.963697702</v>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>479481.886342317</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -666,28 +678,29 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>364201.3367646401</v>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>581200.0744059301</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -695,28 +708,29 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>409124.7812192902</v>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>639819.6970576126</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -724,28 +738,29 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>479342.1010882396</v>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>686894.9387536681</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,28 +768,29 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>611370.7222866551</v>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>753256.6626361627</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -782,28 +798,29 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>786938.3230818337</v>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>842042.7739208268</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -811,28 +828,29 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1091750.445823035</v>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1017035.484809021</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -840,28 +858,29 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1363913.184958692</v>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1224599.549493309</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,28 +888,29 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1613014.039621558</v>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1516282.189000356</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,28 +918,29 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1849937.476752335</v>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1874995.173711358</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -927,28 +948,29 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2069567.363489284</v>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2220764.560548264</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +978,29 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2259238.906339463</v>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2504096.060743482</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>-0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -985,28 +1008,29 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n"/>
-      <c r="D18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2409649.214014188</v>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2740573.75458845</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>-0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1014,28 +1038,29 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2526818.823821713</v>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2938156.621178141</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>-0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1043,28 +1068,29 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2681646.200770426</v>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3102700.546147592</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1072,28 +1098,29 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2944373.157746835</v>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>394486.0677958434</v>
+        <v>3247837.780937157</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1101,28 +1128,29 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2982964.515190979</v>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="F22" t="n">
-        <v>742282.4798028022</v>
+        <v>3433786.114108896</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>249999.9999999991</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1130,28 +1158,29 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2775400.450506691</v>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>813496.2089310526</v>
+        <v>3457179.972184799</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>250000.0000000001</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1159,28 +1188,29 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2483717.810999644</v>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="F24" t="n">
-        <v>736606.5117539</v>
+        <v>3580468.156743338</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>572737.6185584632</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,88 +1218,91 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2125004.826288642</v>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>2371909.554723268</v>
+        <v>3466603.074175191</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>4000000</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n">
-        <v>29</v>
-      </c>
+      <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E26" t="n">
-        <v>94734.8093909204</v>
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>94734.8093909204</v>
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
       <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E27" t="n">
-        <v>113835.430959994</v>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>141133.207009499</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>-0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1277,28 +1310,29 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="E28" t="n">
-        <v>152133.658419249</v>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>183046.1877269049</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>-0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1306,28 +1340,29 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E29" t="n">
-        <v>261001.4447553365</v>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>239124.4971292727</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>-0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1335,28 +1370,29 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="E30" t="n">
-        <v>463453.1931802382</v>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>292577.4410453368</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>-0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1364,28 +1400,29 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E31" t="n">
-        <v>773756.1738203043</v>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>342540.8952033793</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>-0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1393,28 +1430,29 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1000128.047606594</v>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>386667.5662243777</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>-0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,28 +1460,29 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
       <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1188218.122971988</v>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>446677.5911095641</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>-0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,28 +1490,29 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1373894.209187909</v>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>546723.3402562952</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>-0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1480,28 +1520,29 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="n"/>
       <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1521435.305558126</v>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>671423.1990746629</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>-0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1509,28 +1550,29 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1693956.400417046</v>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>908456.6319124708</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>-0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,28 +1580,29 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1812211.082427013</v>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1157530.920381957</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>-0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1567,28 +1610,29 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1903812.893413303</v>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1390102.62695437</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>-0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1596,28 +1640,29 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2030679.386800718</v>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1599658.144030901</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>-0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1625,28 +1670,29 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2255590.518792842</v>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1784040.037527485</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>-0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1654,28 +1700,29 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
       <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2614539.162015471</v>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1933770.318621963</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>-0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1683,17 +1730,15 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="n"/>
-      <c r="D42" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3120000</v>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="F42" t="n">
-        <v>658515.5555060734</v>
+        <v>2059389.986087876</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1702,9 +1747,12 @@
         <v>-0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1712,17 +1760,15 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3091543.368087529</v>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="F43" t="n">
-        <v>751930.0311552533</v>
+        <v>2170855.15853999</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1731,9 +1777,12 @@
         <v>-0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1741,17 +1790,15 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n"/>
       <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2842469.079618045</v>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="F44" t="n">
-        <v>584362.1439376678</v>
+        <v>2314239.71346599</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1760,9 +1807,12 @@
         <v>-0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1770,17 +1820,15 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="n"/>
       <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2609897.373045631</v>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="F45" t="n">
-        <v>462656.1135125826</v>
+        <v>2526143.470358214</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1789,9 +1837,12 @@
         <v>-0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1799,17 +1850,15 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n"/>
       <c r="C46" s="1" t="n"/>
-      <c r="D46" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2400341.8559691</v>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="F46" t="n">
-        <v>368139.8360098484</v>
+        <v>2838746.565913682</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -1818,9 +1867,12 @@
         <v>-0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1828,28 +1880,29 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n"/>
       <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2215959.962472515</v>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="F47" t="n">
-        <v>287978.0568500563</v>
+        <v>3253826.267295457</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>490145.1042927438</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1857,28 +1910,29 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="n"/>
       <c r="C48" s="1" t="n"/>
-      <c r="D48" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2066229.681378038</v>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="F48" t="n">
-        <v>2160653.891345491</v>
+        <v>3332069.391804256</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>899088.0990181211</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1886,117 +1940,125 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>2995289.402450024</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2512063.511384601</v>
       </c>
       <c r="H49" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E50" t="n">
-        <v>100000</v>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>988700.2145986264</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>100000</v>
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="D51" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="E51" t="n">
-        <v>133481.8676820582</v>
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="E52" t="n">
-        <v>202448.2590518941</v>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>178831.4411373402</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2004,28 +2066,29 @@
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="n"/>
-      <c r="D53" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="E53" t="n">
-        <v>377003.3750113957</v>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>274830.4992946137</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2033,28 +2096,29 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
       <c r="C54" s="1" t="n"/>
-      <c r="D54" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="E54" t="n">
-        <v>667930.608195744</v>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>413556.2973657356</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2062,28 +2126,29 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n"/>
       <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1004710.597549976</v>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>551997.0656411543</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2091,92 +2156,89 @@
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
       <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1511299.785401365</v>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>677495.0822047553</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>100000</v>
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>750296.1393371043</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="K57" t="n">
-        <v>100000</v>
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="n"/>
-      <c r="D58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>147987.2678134156</v>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>808981.7006396399</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2184,28 +2246,29 @@
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="n"/>
-      <c r="D59" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>201110.4528034931</v>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>891947.3377013903</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2213,28 +2276,29 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E60" t="n">
-        <v>279109.9789076411</v>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1003356.447193576</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2242,28 +2306,29 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>351305.012353409</v>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1224061.557671689</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>-0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2271,28 +2336,29 @@
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="n"/>
       <c r="C62" s="1" t="n"/>
-      <c r="D62" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>411376.2965657238</v>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1487519.104459845</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>-0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2300,28 +2366,29 @@
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="n"/>
       <c r="C63" s="1" t="n"/>
-      <c r="D63" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E63" t="n">
-        <v>466053.0184615571</v>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1860084.795304225</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>-0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2329,28 +2396,29 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="n"/>
       <c r="C64" s="1" t="n"/>
-      <c r="D64" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E64" t="n">
-        <v>552045.3264274907</v>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2321155.376921898</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>-0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,28 +2426,29 @@
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="n"/>
       <c r="C65" s="1" t="n"/>
-      <c r="D65" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>715144.1283361415</v>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2767953.973854007</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>-0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,28 +2456,29 @@
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="n"/>
-      <c r="D66" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>934219.6179228672</v>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>3135505.690402908</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2416,28 +2486,29 @@
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n"/>
       <c r="C67" s="1" t="n"/>
-      <c r="D67" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1318658.981667509</v>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3443138.372686458</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>298295.228492212</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2445,28 +2516,29 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1665083.276590763</v>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3402432.275508634</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,28 +2546,29 @@
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1984089.528725894</v>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>376000.8599053209</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2503,28 +2576,29 @@
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n"/>
       <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2288872.743026847</v>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3398509.181649883</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2532,28 +2606,29 @@
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="n"/>
-      <c r="D71" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2572417.611948564</v>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>296590.9343214976</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2561,28 +2636,29 @@
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
       <c r="C72" s="1" t="n"/>
-      <c r="D72" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2817982.977941661</v>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>401889.9092552634</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2590,28 +2666,29 @@
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="n"/>
-      <c r="D73" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3013159.369497154</v>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="F73" t="n">
-        <v>250000</v>
+        <v>3600000</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>624466.1206713795</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2619,28 +2696,29 @@
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="n"/>
       <c r="C74" s="1" t="n"/>
-      <c r="D74" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2915478.596566048</v>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>3452049.51422018</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4000000</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2649,16 +2727,16 @@
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="n"/>
       <c r="D75" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3101048.482787033</v>
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="F75" t="n">
-        <v>419751.8657587259</v>
+        <v>100000</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
@@ -2667,27 +2745,28 @@
         <v>-0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="n"/>
       <c r="C76" s="1" t="n"/>
-      <c r="D76" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2996643.552806424</v>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="F76" t="n">
-        <v>677785.4567683083</v>
+        <v>146637.211938275</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -2696,9 +2775,12 @@
         <v>-0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2706,17 +2788,15 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2775938.442328312</v>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="F77" t="n">
-        <v>778738.8771034009</v>
+        <v>195165.9945505474</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -2725,9 +2805,12 @@
         <v>-0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2735,17 +2818,15 @@
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="n"/>
-      <c r="D78" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2512480.895540155</v>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="F78" t="n">
-        <v>860817.3694512541</v>
+        <v>261180.017900745</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -2754,9 +2835,12 @@
         <v>-0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,17 +2848,15 @@
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="n"/>
       <c r="C79" s="1" t="n"/>
-      <c r="D79" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2139915.204695775</v>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="F79" t="n">
-        <v>796878.4678491394</v>
+        <v>324960.0661051276</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -2783,9 +2865,12 @@
         <v>-0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2793,17 +2878,15 @@
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="n"/>
-      <c r="D80" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1678844.623078102</v>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="F80" t="n">
-        <v>1879702.143946064</v>
+        <v>385158.8932934314</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -2812,69 +2895,72 @@
         <v>-0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E81" t="n">
-        <v>94734.8093909204</v>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>438712.3795011409</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="K81" t="n">
-        <v>94734.8093909204</v>
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="n"/>
-      <c r="D82" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E82" t="n">
-        <v>116263.7339936398</v>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>511996.2477289445</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>-0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2882,28 +2968,29 @@
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="n"/>
       <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="E83" t="n">
-        <v>160174.9769660901</v>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>635110.6801362699</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>-0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2911,28 +2998,29 @@
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E84" t="n">
-        <v>288450.3018105985</v>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>789891.5088447366</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>-0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2940,28 +3028,29 @@
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="n"/>
-      <c r="D85" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="E85" t="n">
-        <v>534253.7525566283</v>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1087014.077180006</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>-0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2969,28 +3058,29 @@
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="n"/>
       <c r="C86" s="1" t="n"/>
-      <c r="D86" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E86" t="n">
-        <v>920052.5874713904</v>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1402258.110243111</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>-0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2998,28 +3088,29 @@
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1205494.083724444</v>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1698682.100337707</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>-0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3027,28 +3118,29 @@
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="n"/>
       <c r="C88" s="1" t="n"/>
-      <c r="D88" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1444415.274252921</v>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1967125.107141838</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>-0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3056,28 +3148,29 @@
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="n"/>
-      <c r="D89" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1681480.521717841</v>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2204216.16889592</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>-0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3085,28 +3178,29 @@
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n"/>
       <c r="C90" s="1" t="n"/>
-      <c r="D90" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1870605.242883931</v>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2397311.054556404</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>-0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3114,28 +3208,29 @@
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2092416.87357902</v>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2559673.823038798</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>-0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3143,28 +3238,29 @@
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="n"/>
-      <c r="D92" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2244898.063516323</v>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2703998.984988567</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>-0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3172,28 +3268,29 @@
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="n"/>
-      <c r="D93" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2363252.854234166</v>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2889892.109223798</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>-0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3201,28 +3298,29 @@
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="n"/>
-      <c r="D94" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2527364.586870185</v>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3165067.124197169</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3230,28 +3328,29 @@
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="n"/>
       <c r="C95" s="1" t="n"/>
-      <c r="D95" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2818825.212254393</v>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="F95" t="n">
-        <v>250000.0000000005</v>
+        <v>3571954.672702699</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>540588.7057966334</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3259,28 +3358,29 @@
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="n"/>
-      <c r="D96" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="E96" t="n">
-        <v>3035381.983868315</v>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="F96" t="n">
-        <v>524699.3147113286</v>
+        <v>3573215.747981539</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1004893.099591709</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3288,28 +3388,29 @@
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="n"/>
       <c r="C97" s="1" t="n"/>
-      <c r="D97" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="E97" t="n">
-        <v>3120000</v>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="F97" t="n">
-        <v>859824.0544502293</v>
+        <v>3214921.414362346</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>983719.6530493748</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3317,28 +3418,29 @@
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="n"/>
-      <c r="D98" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2912985.922819993</v>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="F98" t="n">
-        <v>804965.132586699</v>
+        <v>2792138.117024235</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2637631.592274173</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,23 +3448,21 @@
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n"/>
       <c r="C99" s="1" t="n"/>
-      <c r="D99" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2597741.88975689</v>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="F99" t="n">
-        <v>628091.9282355639</v>
+        <v>641676.0627080328</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3370,62 +3470,75 @@
       <c r="K99" t="n">
         <v>0</v>
       </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="n"/>
+      <c r="A100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="D100" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2301317.899662293</v>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>498368.1025751424</v>
+        <v>100000</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
       <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="n"/>
-      <c r="D101" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2032874.892858164</v>
+      <c r="D101" s="1" t="n"/>
+      <c r="E101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>397269.8431820236</v>
+        <v>142310.3952591991</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,28 +3546,29 @@
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="n"/>
-      <c r="D102" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1795783.831104079</v>
+      <c r="D102" s="1" t="n"/>
+      <c r="E102" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>308326.272817461</v>
+        <v>188137.9880076258</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,28 +3576,29 @@
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="n"/>
-      <c r="D103" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1602688.945443598</v>
+      <c r="D103" s="1" t="n"/>
+      <c r="E103" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>1677987.967558782</v>
+        <v>254224.3494971087</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3491,88 +3606,89 @@
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="n"/>
       <c r="C104" s="1" t="n"/>
-      <c r="D104" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
+      <c r="D104" s="1" t="n"/>
+      <c r="E104" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>314513.963697702</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="n"/>
-      <c r="C105" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E105" t="n">
-        <v>100000</v>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="n"/>
+      <c r="E105" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>364201.3367646401</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="K105" t="n">
-        <v>100000</v>
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="n"/>
       <c r="C106" s="1" t="n"/>
-      <c r="D106" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="E106" t="n">
-        <v>137881.6070901459</v>
+      <c r="D106" s="1" t="n"/>
+      <c r="E106" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>409124.7812192902</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,28 +3696,29 @@
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="n"/>
-      <c r="D107" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="E107" t="n">
-        <v>217869.5000658093</v>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>479342.1010882396</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,28 +3726,29 @@
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="n"/>
-      <c r="D108" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="E108" t="n">
-        <v>426784.2520184607</v>
+      <c r="D108" s="1" t="n"/>
+      <c r="E108" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>611370.7222866551</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,28 +3756,29 @@
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="n"/>
-      <c r="D109" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="E109" t="n">
-        <v>785078.585637655</v>
+      <c r="D109" s="1" t="n"/>
+      <c r="E109" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>786938.3230818337</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3667,28 +3786,29 @@
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="n"/>
-      <c r="D110" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1207861.882975766</v>
+      <c r="D110" s="1" t="n"/>
+      <c r="E110" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1091750.445823035</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,43 +3816,3008 @@
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n"/>
       <c r="C111" s="1" t="n"/>
-      <c r="D111" s="1" t="n">
+      <c r="D111" s="1" t="n"/>
+      <c r="E111" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1363913.184958692</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="n"/>
+      <c r="E112" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1613014.039621558</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1849937.476752335</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="n"/>
+      <c r="E114" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2069567.363489284</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="n"/>
+      <c r="E115" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2259238.906339463</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="n"/>
+      <c r="E116" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2409649.214014188</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="n"/>
+      <c r="E117" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2526818.823821713</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="n"/>
+      <c r="E118" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2681646.200770426</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="n"/>
+      <c r="E119" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2944373.157746835</v>
+      </c>
+      <c r="G119" t="n">
+        <v>394486.0677958434</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="n"/>
+      <c r="E120" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2982964.515190979</v>
+      </c>
+      <c r="G120" t="n">
+        <v>742282.4798028022</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="n"/>
+      <c r="E121" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2775400.450506691</v>
+      </c>
+      <c r="G121" t="n">
+        <v>813496.2089310526</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="n"/>
+      <c r="E122" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2483717.810999644</v>
+      </c>
+      <c r="G122" t="n">
+        <v>736606.5117539</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="n"/>
+      <c r="E123" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2125004.826288642</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2371909.554723268</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F124" t="n">
+        <v>94734.8093909204</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>94734.8093909204</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
+      <c r="E125" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F125" t="n">
+        <v>113835.430959994</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="n"/>
+      <c r="E126" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F126" t="n">
+        <v>152133.658419249</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
+      <c r="D127" s="1" t="n"/>
+      <c r="E127" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F127" t="n">
+        <v>261001.4447553365</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="n"/>
+      <c r="E128" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F128" t="n">
+        <v>463453.1931802382</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="n"/>
+      <c r="E129" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F129" t="n">
+        <v>773756.1738203043</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="n"/>
+      <c r="E130" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1000128.047606594</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="n"/>
+      <c r="E131" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1188218.122971988</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="n"/>
+      <c r="E132" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1373894.209187909</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="n"/>
+      <c r="D133" s="1" t="n"/>
+      <c r="E133" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1521435.305558126</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="n"/>
+      <c r="C134" s="1" t="n"/>
+      <c r="D134" s="1" t="n"/>
+      <c r="E134" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1693956.400417046</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
+      <c r="D135" s="1" t="n"/>
+      <c r="E135" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1812211.082427013</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
+      <c r="D136" s="1" t="n"/>
+      <c r="E136" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1903812.893413303</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
+      <c r="D137" s="1" t="n"/>
+      <c r="E137" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2030679.386800718</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="n"/>
+      <c r="E138" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2255590.518792842</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="n"/>
+      <c r="D139" s="1" t="n"/>
+      <c r="E139" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2614539.162015471</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="1" t="n"/>
+      <c r="D140" s="1" t="n"/>
+      <c r="E140" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>658515.5555060734</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="n"/>
+      <c r="C141" s="1" t="n"/>
+      <c r="D141" s="1" t="n"/>
+      <c r="E141" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3091543.368087529</v>
+      </c>
+      <c r="G141" t="n">
+        <v>751930.0311552533</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="n"/>
+      <c r="C142" s="1" t="n"/>
+      <c r="D142" s="1" t="n"/>
+      <c r="E142" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2842469.079618045</v>
+      </c>
+      <c r="G142" t="n">
+        <v>584362.1439376678</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="n"/>
+      <c r="D143" s="1" t="n"/>
+      <c r="E143" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2609897.373045631</v>
+      </c>
+      <c r="G143" t="n">
+        <v>462656.1135125826</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="n"/>
+      <c r="D144" s="1" t="n"/>
+      <c r="E144" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2400341.8559691</v>
+      </c>
+      <c r="G144" t="n">
+        <v>368139.8360098484</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="n"/>
+      <c r="C145" s="1" t="n"/>
+      <c r="D145" s="1" t="n"/>
+      <c r="E145" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2215959.962472515</v>
+      </c>
+      <c r="G145" t="n">
+        <v>287978.0568500563</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="1" t="n"/>
+      <c r="C146" s="1" t="n"/>
+      <c r="D146" s="1" t="n"/>
+      <c r="E146" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2066229.681378038</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2160653.891345491</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="n"/>
+      <c r="D147" s="1" t="n"/>
+      <c r="E147" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="n"/>
+      <c r="D148" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="n"/>
+      <c r="C149" s="1" t="n"/>
+      <c r="D149" s="1" t="n"/>
+      <c r="E149" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F149" t="n">
+        <v>133481.8676820582</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="n"/>
+      <c r="C150" s="1" t="n"/>
+      <c r="D150" s="1" t="n"/>
+      <c r="E150" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F150" t="n">
+        <v>202448.2590518941</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="n"/>
+      <c r="C151" s="1" t="n"/>
+      <c r="D151" s="1" t="n"/>
+      <c r="E151" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F151" t="n">
+        <v>377003.3750113957</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="n"/>
+      <c r="C152" s="1" t="n"/>
+      <c r="D152" s="1" t="n"/>
+      <c r="E152" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="F152" t="n">
+        <v>667930.608195744</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="1" t="n"/>
+      <c r="D153" s="1" t="n"/>
+      <c r="E153" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1004710.597549976</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="n"/>
+      <c r="D154" s="1" t="n"/>
+      <c r="E154" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F154" t="n">
+        <v>1511299.785401365</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n"/>
+      <c r="C156" s="1" t="n"/>
+      <c r="D156" s="1" t="n"/>
+      <c r="E156" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>147987.2678134156</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="n"/>
+      <c r="E157" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>201110.4528034931</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="n"/>
+      <c r="E158" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>279109.9789076411</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="n"/>
+      <c r="E159" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>351305.012353409</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="n"/>
+      <c r="E160" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>411376.2965657238</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n"/>
+      <c r="E161" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>466053.0184615571</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n"/>
+      <c r="E162" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>552045.3264274907</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="n"/>
+      <c r="E163" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>715144.1283361415</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="n"/>
+      <c r="D164" s="1" t="n"/>
+      <c r="E164" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>934219.6179228672</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
+      <c r="D165" s="1" t="n"/>
+      <c r="E165" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1318658.981667509</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="1" t="n"/>
+      <c r="D166" s="1" t="n"/>
+      <c r="E166" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1665083.276590763</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="n"/>
+      <c r="D167" s="1" t="n"/>
+      <c r="E167" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1984089.528725894</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="n"/>
+      <c r="D168" s="1" t="n"/>
+      <c r="E168" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2288872.743026847</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="n"/>
+      <c r="C169" s="1" t="n"/>
+      <c r="D169" s="1" t="n"/>
+      <c r="E169" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2572417.611948564</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="n"/>
+      <c r="C170" s="1" t="n"/>
+      <c r="D170" s="1" t="n"/>
+      <c r="E170" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2817982.977941661</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="n"/>
+      <c r="C171" s="1" t="n"/>
+      <c r="D171" s="1" t="n"/>
+      <c r="E171" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3013159.369497154</v>
+      </c>
+      <c r="G171" t="n">
+        <v>250000</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n"/>
+      <c r="B172" s="1" t="n"/>
+      <c r="C172" s="1" t="n"/>
+      <c r="D172" s="1" t="n"/>
+      <c r="E172" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2915478.596566048</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n"/>
+      <c r="C173" s="1" t="n"/>
+      <c r="D173" s="1" t="n"/>
+      <c r="E173" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3101048.482787033</v>
+      </c>
+      <c r="G173" t="n">
+        <v>419751.8657587259</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n"/>
+      <c r="C174" s="1" t="n"/>
+      <c r="D174" s="1" t="n"/>
+      <c r="E174" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2996643.552806424</v>
+      </c>
+      <c r="G174" t="n">
+        <v>677785.4567683083</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n"/>
+      <c r="C175" s="1" t="n"/>
+      <c r="D175" s="1" t="n"/>
+      <c r="E175" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2775938.442328312</v>
+      </c>
+      <c r="G175" t="n">
+        <v>778738.8771034009</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="n"/>
+      <c r="C176" s="1" t="n"/>
+      <c r="D176" s="1" t="n"/>
+      <c r="E176" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2512480.895540155</v>
+      </c>
+      <c r="G176" t="n">
+        <v>860817.3694512541</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="n"/>
+      <c r="C177" s="1" t="n"/>
+      <c r="D177" s="1" t="n"/>
+      <c r="E177" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2139915.204695775</v>
+      </c>
+      <c r="G177" t="n">
+        <v>796878.4678491394</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="n"/>
+      <c r="C178" s="1" t="n"/>
+      <c r="D178" s="1" t="n"/>
+      <c r="E178" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1678844.623078102</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1879702.143946064</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="n"/>
+      <c r="C179" s="1" t="n"/>
+      <c r="D179" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E179" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F179" t="n">
+        <v>94734.8093909204</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>94734.8093909204</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="n"/>
+      <c r="C180" s="1" t="n"/>
+      <c r="D180" s="1" t="n"/>
+      <c r="E180" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F180" t="n">
+        <v>116263.7339936398</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="n"/>
+      <c r="C181" s="1" t="n"/>
+      <c r="D181" s="1" t="n"/>
+      <c r="E181" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F181" t="n">
+        <v>160174.9769660901</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="n"/>
+      <c r="C182" s="1" t="n"/>
+      <c r="D182" s="1" t="n"/>
+      <c r="E182" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F182" t="n">
+        <v>288450.3018105985</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="n"/>
+      <c r="C183" s="1" t="n"/>
+      <c r="D183" s="1" t="n"/>
+      <c r="E183" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F183" t="n">
+        <v>534253.7525566283</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="1" t="n"/>
+      <c r="C184" s="1" t="n"/>
+      <c r="D184" s="1" t="n"/>
+      <c r="E184" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F184" t="n">
+        <v>920052.5874713904</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="1" t="n"/>
+      <c r="D185" s="1" t="n"/>
+      <c r="E185" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1205494.083724444</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="n"/>
+      <c r="C186" s="1" t="n"/>
+      <c r="D186" s="1" t="n"/>
+      <c r="E186" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1444415.274252921</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="n"/>
+      <c r="C187" s="1" t="n"/>
+      <c r="D187" s="1" t="n"/>
+      <c r="E187" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1681480.521717841</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="n"/>
+      <c r="C188" s="1" t="n"/>
+      <c r="D188" s="1" t="n"/>
+      <c r="E188" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1870605.242883931</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n"/>
+      <c r="B189" s="1" t="n"/>
+      <c r="C189" s="1" t="n"/>
+      <c r="D189" s="1" t="n"/>
+      <c r="E189" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2092416.87357902</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="n"/>
+      <c r="C190" s="1" t="n"/>
+      <c r="D190" s="1" t="n"/>
+      <c r="E190" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2244898.063516323</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="n"/>
+      <c r="C191" s="1" t="n"/>
+      <c r="D191" s="1" t="n"/>
+      <c r="E191" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2363252.854234166</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="n"/>
+      <c r="C192" s="1" t="n"/>
+      <c r="D192" s="1" t="n"/>
+      <c r="E192" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2527364.586870185</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="1" t="n"/>
+      <c r="C193" s="1" t="n"/>
+      <c r="D193" s="1" t="n"/>
+      <c r="E193" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2818825.212254393</v>
+      </c>
+      <c r="G193" t="n">
+        <v>250000.0000000005</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="1" t="n"/>
+      <c r="C194" s="1" t="n"/>
+      <c r="D194" s="1" t="n"/>
+      <c r="E194" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3035381.983868315</v>
+      </c>
+      <c r="G194" t="n">
+        <v>524699.3147113286</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="n"/>
+      <c r="C195" s="1" t="n"/>
+      <c r="D195" s="1" t="n"/>
+      <c r="E195" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>859824.0544502293</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="1" t="n"/>
+      <c r="C196" s="1" t="n"/>
+      <c r="D196" s="1" t="n"/>
+      <c r="E196" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2912985.922819993</v>
+      </c>
+      <c r="G196" t="n">
+        <v>804965.132586699</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="n"/>
+      <c r="C197" s="1" t="n"/>
+      <c r="D197" s="1" t="n"/>
+      <c r="E197" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2597741.88975689</v>
+      </c>
+      <c r="G197" t="n">
+        <v>628091.9282355639</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="n"/>
+      <c r="C198" s="1" t="n"/>
+      <c r="D198" s="1" t="n"/>
+      <c r="E198" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2301317.899662293</v>
+      </c>
+      <c r="G198" t="n">
+        <v>498368.1025751424</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="n"/>
+      <c r="C199" s="1" t="n"/>
+      <c r="D199" s="1" t="n"/>
+      <c r="E199" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2032874.892858164</v>
+      </c>
+      <c r="G199" t="n">
+        <v>397269.8431820236</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="n"/>
+      <c r="C200" s="1" t="n"/>
+      <c r="D200" s="1" t="n"/>
+      <c r="E200" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1795783.831104079</v>
+      </c>
+      <c r="G200" t="n">
+        <v>308326.272817461</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="1" t="n"/>
+      <c r="C201" s="1" t="n"/>
+      <c r="D201" s="1" t="n"/>
+      <c r="E201" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1602688.945443598</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1677987.967558782</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="n"/>
+      <c r="C202" s="1" t="n"/>
+      <c r="D202" s="1" t="n"/>
+      <c r="E202" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="n"/>
+      <c r="C203" s="1" t="n"/>
+      <c r="D203" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E203" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F203" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="n"/>
+      <c r="C204" s="1" t="n"/>
+      <c r="D204" s="1" t="n"/>
+      <c r="E204" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F204" t="n">
+        <v>137881.6070901459</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="n"/>
+      <c r="C205" s="1" t="n"/>
+      <c r="D205" s="1" t="n"/>
+      <c r="E205" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F205" t="n">
+        <v>217869.5000658093</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="n"/>
+      <c r="C206" s="1" t="n"/>
+      <c r="D206" s="1" t="n"/>
+      <c r="E206" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F206" t="n">
+        <v>426784.2520184607</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="n"/>
+      <c r="C207" s="1" t="n"/>
+      <c r="D207" s="1" t="n"/>
+      <c r="E207" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="F207" t="n">
+        <v>785078.585637655</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="n"/>
+      <c r="C208" s="1" t="n"/>
+      <c r="D208" s="1" t="n"/>
+      <c r="E208" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1207861.882975766</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="n"/>
+      <c r="C209" s="1" t="n"/>
+      <c r="D209" s="1" t="n"/>
+      <c r="E209" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F209" t="n">
         <v>1858323.937291951</v>
       </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A56"/>
-    <mergeCell ref="A57:A111"/>
-    <mergeCell ref="B2:B56"/>
-    <mergeCell ref="B57:B111"/>
-    <mergeCell ref="C2:C25"/>
-    <mergeCell ref="C26:C49"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C80"/>
-    <mergeCell ref="C81:C104"/>
-    <mergeCell ref="C105:C111"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:A99"/>
+    <mergeCell ref="A100:A209"/>
+    <mergeCell ref="B2:B50"/>
+    <mergeCell ref="B51:B99"/>
+    <mergeCell ref="B100:B154"/>
+    <mergeCell ref="B155:B209"/>
+    <mergeCell ref="C2:C50"/>
+    <mergeCell ref="C51:C99"/>
+    <mergeCell ref="C100:C154"/>
+    <mergeCell ref="C155:C209"/>
+    <mergeCell ref="D2:D25"/>
+    <mergeCell ref="D26:D50"/>
+    <mergeCell ref="D51:D74"/>
+    <mergeCell ref="D75:D99"/>
+    <mergeCell ref="D100:D123"/>
+    <mergeCell ref="D124:D147"/>
+    <mergeCell ref="D148:D154"/>
+    <mergeCell ref="D155:D178"/>
+    <mergeCell ref="D179:D202"/>
+    <mergeCell ref="D203:D209"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
